--- a/Code/Results/Cases/Case_0_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_205/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.015981214295232</v>
+        <v>5.770351896557194</v>
       </c>
       <c r="D2">
-        <v>2.984036287819781</v>
+        <v>5.69151669042765</v>
       </c>
       <c r="E2">
-        <v>6.515864692228919</v>
+        <v>11.13952402176482</v>
       </c>
       <c r="F2">
-        <v>36.51103177663105</v>
+        <v>46.52596488021071</v>
       </c>
       <c r="G2">
-        <v>2.101657963642085</v>
+        <v>3.730380938232589</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.77314195038777</v>
+        <v>33.19093387126759</v>
       </c>
       <c r="J2">
-        <v>5.631348995922104</v>
+        <v>9.827350157133347</v>
       </c>
       <c r="K2">
-        <v>21.95169279249157</v>
+        <v>20.62939283666754</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.84461965481324</v>
+        <v>20.54564155860964</v>
       </c>
       <c r="N2">
-        <v>13.25901749191648</v>
+        <v>20.60907617808908</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.028695245931397</v>
+        <v>5.770248028501598</v>
       </c>
       <c r="D3">
-        <v>2.927955917319344</v>
+        <v>5.688085643398176</v>
       </c>
       <c r="E3">
-        <v>6.474615217602316</v>
+        <v>11.15636483053418</v>
       </c>
       <c r="F3">
-        <v>35.39420145108105</v>
+        <v>46.47776743339227</v>
       </c>
       <c r="G3">
-        <v>2.112364880783226</v>
+        <v>3.734196434935924</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.01904925643319</v>
+        <v>33.16612704358795</v>
       </c>
       <c r="J3">
-        <v>5.666217413297264</v>
+        <v>9.850810723537979</v>
       </c>
       <c r="K3">
-        <v>20.58738456121673</v>
+        <v>20.32242842836381</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.03513853121624</v>
+        <v>20.44062985909191</v>
       </c>
       <c r="N3">
-        <v>13.55218188049107</v>
+        <v>20.68595807129309</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.036528181235616</v>
+        <v>5.770238432072141</v>
       </c>
       <c r="D4">
-        <v>2.893654061573577</v>
+        <v>5.686201248938922</v>
       </c>
       <c r="E4">
-        <v>6.452121872646681</v>
+        <v>11.16802994956298</v>
       </c>
       <c r="F4">
-        <v>34.73276053995764</v>
+        <v>46.46062048992555</v>
       </c>
       <c r="G4">
-        <v>2.119088769114816</v>
+        <v>3.736660107638533</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.57437844688265</v>
+        <v>33.15970658107354</v>
       </c>
       <c r="J4">
-        <v>5.689880913246802</v>
+        <v>9.866251971988234</v>
       </c>
       <c r="K4">
-        <v>19.71911585742593</v>
+        <v>20.13717117331976</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.52957012910479</v>
+        <v>20.38045079820971</v>
       </c>
       <c r="N4">
-        <v>13.73463982817893</v>
+        <v>20.73519146530589</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.039732677813217</v>
+        <v>5.770248372426544</v>
       </c>
       <c r="D5">
-        <v>2.879707988487935</v>
+        <v>5.685489611397615</v>
       </c>
       <c r="E5">
-        <v>6.44365342091896</v>
+        <v>11.17311697285297</v>
       </c>
       <c r="F5">
-        <v>34.46939021762152</v>
+        <v>46.45676006599231</v>
       </c>
       <c r="G5">
-        <v>2.12186901332006</v>
+        <v>3.737694602690587</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.39779950380094</v>
+        <v>33.15930268124468</v>
       </c>
       <c r="J5">
-        <v>5.700075892617535</v>
+        <v>9.872805340024966</v>
       </c>
       <c r="K5">
-        <v>19.35778770381725</v>
+        <v>20.06258313281378</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.32162627434993</v>
+        <v>20.35702659666847</v>
       </c>
       <c r="N5">
-        <v>13.80967064315594</v>
+        <v>20.75576609386929</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.040265702999409</v>
+        <v>5.770250866291192</v>
       </c>
       <c r="D6">
-        <v>2.877394198938789</v>
+        <v>5.685374853894723</v>
       </c>
       <c r="E6">
-        <v>6.442288952205054</v>
+        <v>11.17398181260845</v>
       </c>
       <c r="F6">
-        <v>34.426032448127</v>
+        <v>46.4563077853845</v>
       </c>
       <c r="G6">
-        <v>2.122333169599662</v>
+        <v>3.737868227068657</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.36875865313999</v>
+        <v>33.15936911861826</v>
       </c>
       <c r="J6">
-        <v>5.701801682370973</v>
+        <v>9.873909291380221</v>
       </c>
       <c r="K6">
-        <v>19.29734334271935</v>
+        <v>20.05025533110415</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.28698889341979</v>
+        <v>20.35320392346978</v>
       </c>
       <c r="N6">
-        <v>13.82217208646751</v>
+        <v>20.75921344766788</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.036571340023879</v>
+        <v>5.770238509767752</v>
       </c>
       <c r="D7">
-        <v>2.893465849723081</v>
+        <v>5.686191423204188</v>
       </c>
       <c r="E7">
-        <v>6.452004858434438</v>
+        <v>11.16809720470526</v>
       </c>
       <c r="F7">
-        <v>34.72918355904127</v>
+        <v>46.46055577111017</v>
       </c>
       <c r="G7">
-        <v>2.11912609845566</v>
+        <v>3.736673935439197</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.5719782828845</v>
+        <v>33.15969218120019</v>
       </c>
       <c r="J7">
-        <v>5.690016190442543</v>
+        <v>9.866339296055253</v>
       </c>
       <c r="K7">
-        <v>19.71427292967978</v>
+        <v>20.1361614596395</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.52677316792096</v>
+        <v>20.38013041738201</v>
       </c>
       <c r="N7">
-        <v>13.73564889848217</v>
+        <v>20.73546686813984</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.020363146912806</v>
+        <v>5.770304972966802</v>
       </c>
       <c r="D8">
-        <v>2.964671409486532</v>
+        <v>5.690287754353875</v>
       </c>
       <c r="E8">
-        <v>6.501044655535637</v>
+        <v>11.14505593355799</v>
       </c>
       <c r="F8">
-        <v>36.12094038429152</v>
+        <v>46.5067622822386</v>
       </c>
       <c r="G8">
-        <v>2.105320208822068</v>
+        <v>3.731671490198333</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.50933112967162</v>
+        <v>33.18055037199951</v>
       </c>
       <c r="J8">
-        <v>5.642894411299717</v>
+        <v>9.835224461325046</v>
       </c>
       <c r="K8">
-        <v>21.48771509414225</v>
+        <v>20.52294119911278</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.56740630536193</v>
+        <v>20.50855283595229</v>
       </c>
       <c r="N8">
-        <v>13.3596290889285</v>
+        <v>20.63516529471327</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.988506597865849</v>
+        <v>5.77085545589089</v>
       </c>
       <c r="D9">
-        <v>3.105488449388684</v>
+        <v>5.700068515036304</v>
       </c>
       <c r="E9">
-        <v>6.620389275910164</v>
+        <v>11.11037213366758</v>
       </c>
       <c r="F9">
-        <v>39.04116874465077</v>
+        <v>46.69614033270636</v>
       </c>
       <c r="G9">
-        <v>2.079309462815033</v>
+        <v>3.722816017702566</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.49290123435113</v>
+        <v>33.29143222207344</v>
       </c>
       <c r="J9">
-        <v>5.569115157688943</v>
+        <v>9.782416735349878</v>
       </c>
       <c r="K9">
-        <v>25.02646595230426</v>
+        <v>21.30269683786376</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.53268442203113</v>
+        <v>20.79361990741369</v>
       </c>
       <c r="N9">
-        <v>12.63875908410751</v>
+        <v>20.45448002111445</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.96463249933176</v>
+        <v>5.771503294950709</v>
       </c>
       <c r="D10">
-        <v>3.210035278232482</v>
+        <v>5.708299573669405</v>
       </c>
       <c r="E10">
-        <v>6.723217548003895</v>
+        <v>11.09127537002868</v>
       </c>
       <c r="F10">
-        <v>41.30336775130746</v>
+        <v>46.8953431511068</v>
       </c>
       <c r="G10">
-        <v>2.060651512629789</v>
+        <v>3.716884232055068</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.04036246871384</v>
+        <v>33.41554633571101</v>
       </c>
       <c r="J10">
-        <v>5.527411849967783</v>
+        <v>9.748602896483662</v>
       </c>
       <c r="K10">
-        <v>27.47446526266737</v>
+        <v>21.88283838264736</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.93831791766162</v>
+        <v>21.02204999988664</v>
       </c>
       <c r="N10">
-        <v>12.11470024096209</v>
+        <v>20.33137036538443</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.953564921004014</v>
+        <v>5.771848236876709</v>
       </c>
       <c r="D11">
-        <v>3.25797170514148</v>
+        <v>5.712266682521845</v>
       </c>
       <c r="E11">
-        <v>6.773530819981946</v>
+        <v>11.08397060162637</v>
       </c>
       <c r="F11">
-        <v>42.35894773970622</v>
+        <v>46.99892206300469</v>
       </c>
       <c r="G11">
-        <v>2.052211727314147</v>
+        <v>3.714308829089251</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.76490277520833</v>
+        <v>33.48123046553361</v>
       </c>
       <c r="J11">
-        <v>5.511447518462388</v>
+        <v>9.734298197834015</v>
       </c>
       <c r="K11">
-        <v>28.54388277834882</v>
+        <v>22.14714245339655</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.712210061116</v>
+        <v>21.12979606981303</v>
       </c>
       <c r="N11">
-        <v>11.87639805089229</v>
+        <v>20.27743252112292</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.94933437376312</v>
+        <v>5.771985865469485</v>
       </c>
       <c r="D12">
-        <v>3.276194576347898</v>
+        <v>5.713800562154587</v>
       </c>
       <c r="E12">
-        <v>6.793114297549637</v>
+        <v>11.08140291599459</v>
       </c>
       <c r="F12">
-        <v>42.76265934733058</v>
+        <v>47.03999645789258</v>
       </c>
       <c r="G12">
-        <v>2.049017901152095</v>
+        <v>3.713351155421246</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.04236975955317</v>
+        <v>33.50742325549227</v>
       </c>
       <c r="J12">
-        <v>5.505862648841203</v>
+        <v>9.729036006702172</v>
       </c>
       <c r="K12">
-        <v>28.94278467850626</v>
+        <v>22.24718756814027</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.00079702093938</v>
+        <v>21.171121062036</v>
       </c>
       <c r="N12">
-        <v>11.78607220110944</v>
+        <v>20.25730278275802</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.950247420185357</v>
+        <v>5.771955916488689</v>
       </c>
       <c r="D13">
-        <v>3.272266519364528</v>
+        <v>5.713468813934925</v>
       </c>
       <c r="E13">
-        <v>6.788872644788374</v>
+        <v>11.08194709135381</v>
       </c>
       <c r="F13">
-        <v>42.67553177856205</v>
+        <v>47.03106824060622</v>
       </c>
       <c r="G13">
-        <v>2.049705735764661</v>
+        <v>3.713556627669037</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.98247159695827</v>
+        <v>33.50172360530855</v>
       </c>
       <c r="J13">
-        <v>5.507044486434293</v>
+        <v>9.730162437668046</v>
       </c>
       <c r="K13">
-        <v>28.85713865112012</v>
+        <v>22.22564441664806</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.93883976899411</v>
+        <v>21.16219812729589</v>
       </c>
       <c r="N13">
-        <v>11.80553099546888</v>
+        <v>20.26162497223083</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.953217722209045</v>
+        <v>5.771859420476643</v>
       </c>
       <c r="D14">
-        <v>3.259469392693178</v>
+        <v>5.712392244342261</v>
       </c>
       <c r="E14">
-        <v>6.775131185417606</v>
+        <v>11.08375538084984</v>
       </c>
       <c r="F14">
-        <v>42.39208011959925</v>
+        <v>47.00226425582086</v>
       </c>
       <c r="G14">
-        <v>2.051948955808184</v>
+        <v>3.714229689095637</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.78766703289745</v>
+        <v>33.48335895985907</v>
       </c>
       <c r="J14">
-        <v>5.510978646094387</v>
+        <v>9.733862175374993</v>
       </c>
       <c r="K14">
-        <v>28.57682039621789</v>
+        <v>22.15537459878097</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.73604054603135</v>
+        <v>21.13318556097817</v>
       </c>
       <c r="N14">
-        <v>11.86896921462756</v>
+        <v>20.27577052550578</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.95503166866198</v>
+        <v>5.77180121994878</v>
       </c>
       <c r="D15">
-        <v>3.251640504230616</v>
+        <v>5.711736920200294</v>
       </c>
       <c r="E15">
-        <v>6.766784000517577</v>
+        <v>11.08488884726154</v>
       </c>
       <c r="F15">
-        <v>42.21898366669421</v>
+        <v>46.98486166441962</v>
       </c>
       <c r="G15">
-        <v>2.05332312015887</v>
+        <v>3.714644244216166</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.66875234218787</v>
+        <v>33.47228170803268</v>
       </c>
       <c r="J15">
-        <v>5.513449292208502</v>
+        <v>9.736148509482268</v>
       </c>
       <c r="K15">
-        <v>28.40433701724292</v>
+        <v>22.11232410028343</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.61124488168996</v>
+        <v>21.11548193117335</v>
       </c>
       <c r="N15">
-        <v>11.90781264907597</v>
+        <v>20.28447350036178</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.965350816522277</v>
+        <v>5.771481744408993</v>
       </c>
       <c r="D16">
-        <v>3.20691139281784</v>
+        <v>5.708044761214263</v>
       </c>
       <c r="E16">
-        <v>6.720002471993775</v>
+        <v>11.09178054516132</v>
       </c>
       <c r="F16">
-        <v>41.23492939922793</v>
+        <v>46.88883382651453</v>
       </c>
       <c r="G16">
-        <v>2.061203643115432</v>
+        <v>3.717055006180158</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.99343692231394</v>
+        <v>33.41143879704394</v>
       </c>
       <c r="J16">
-        <v>5.528517987218073</v>
+        <v>9.749559401363046</v>
       </c>
       <c r="K16">
-        <v>27.40371116951279</v>
+        <v>21.86556500118136</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.88710470706334</v>
+        <v>21.01508335236895</v>
       </c>
       <c r="N16">
-        <v>12.13026744288884</v>
+        <v>20.33493674991443</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.971621632076233</v>
+        <v>5.77129846751706</v>
       </c>
       <c r="D17">
-        <v>3.179578319408626</v>
+        <v>5.705836503956615</v>
       </c>
       <c r="E17">
-        <v>6.69222437297384</v>
+        <v>11.09636223437478</v>
       </c>
       <c r="F17">
-        <v>40.63812904569131</v>
+        <v>46.8332354013106</v>
       </c>
       <c r="G17">
-        <v>2.066047147847641</v>
+        <v>3.718565353587715</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.58450747073666</v>
+        <v>33.37647189400935</v>
       </c>
       <c r="J17">
-        <v>5.53855121070366</v>
+        <v>9.758062321422511</v>
       </c>
       <c r="K17">
-        <v>26.77873754674125</v>
+        <v>21.71421685765501</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.52394284427843</v>
+        <v>20.95445454801776</v>
       </c>
       <c r="N17">
-        <v>12.26669241501966</v>
+        <v>20.36642213387529</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.975209580474213</v>
+        <v>5.771197792790645</v>
       </c>
       <c r="D18">
-        <v>3.163891386343297</v>
+        <v>5.704587364714141</v>
       </c>
       <c r="E18">
-        <v>6.676578506285659</v>
+        <v>11.09912764395415</v>
       </c>
       <c r="F18">
-        <v>40.29734374014833</v>
+        <v>46.80247748208151</v>
       </c>
       <c r="G18">
-        <v>2.068837820374216</v>
+        <v>3.71944564906234</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.35122888892879</v>
+        <v>33.35722858391662</v>
       </c>
       <c r="J18">
-        <v>5.544603192493918</v>
+        <v>9.763054398746069</v>
       </c>
       <c r="K18">
-        <v>26.41509045363196</v>
+        <v>21.62720825588867</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.31630187212232</v>
+        <v>20.91994484630035</v>
       </c>
       <c r="N18">
-        <v>12.34517584891577</v>
+        <v>20.3847261926863</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.976421438763937</v>
+        <v>5.771164527052366</v>
       </c>
       <c r="D19">
-        <v>3.158585536641232</v>
+        <v>5.704168045482725</v>
       </c>
       <c r="E19">
-        <v>6.671337354828939</v>
+        <v>11.10008632573978</v>
       </c>
       <c r="F19">
-        <v>40.18238136491516</v>
+        <v>46.7922733903</v>
       </c>
       <c r="G19">
-        <v>2.069783656165809</v>
+        <v>3.71974569487046</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.27257242207562</v>
+        <v>33.35086251074743</v>
       </c>
       <c r="J19">
-        <v>5.546699771837743</v>
+        <v>9.764762057159663</v>
       </c>
       <c r="K19">
-        <v>26.29123979434615</v>
+        <v>21.59775902667766</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.24580506537572</v>
+        <v>20.9083235055636</v>
       </c>
       <c r="N19">
-        <v>12.37175452811258</v>
+        <v>20.3909570880114</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.970956111994802</v>
+        <v>5.771317488536083</v>
       </c>
       <c r="D20">
-        <v>3.182484316384417</v>
+        <v>5.706069407091765</v>
       </c>
       <c r="E20">
-        <v>6.695146950338591</v>
+        <v>11.09586103867727</v>
       </c>
       <c r="F20">
-        <v>40.7014019429003</v>
+        <v>46.83902767919545</v>
       </c>
       <c r="G20">
-        <v>2.065531082404824</v>
+        <v>3.71840337647644</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.62783847372731</v>
+        <v>33.38010431376477</v>
       </c>
       <c r="J20">
-        <v>5.537453867224729</v>
+        <v>9.757146675968343</v>
       </c>
       <c r="K20">
-        <v>26.84569755097289</v>
+        <v>21.73032440966023</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.56228068322064</v>
+        <v>20.96087127620231</v>
       </c>
       <c r="N20">
-        <v>12.25216884366299</v>
+        <v>20.3630503430661</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.952346426951084</v>
+        <v>5.771887575251793</v>
       </c>
       <c r="D21">
-        <v>3.263226157889754</v>
+        <v>5.712707604019142</v>
       </c>
       <c r="E21">
-        <v>6.779152783226329</v>
+        <v>11.08321885861893</v>
       </c>
       <c r="F21">
-        <v>42.47522671039161</v>
+        <v>47.01067455254809</v>
       </c>
       <c r="G21">
-        <v>2.051290050513144</v>
+        <v>3.714031518527257</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.84480034446462</v>
+        <v>33.4887173497442</v>
       </c>
       <c r="J21">
-        <v>5.509810349889524</v>
+        <v>9.732771276417029</v>
       </c>
       <c r="K21">
-        <v>28.6593187152615</v>
+        <v>22.17601642812579</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.79572706720216</v>
+        <v>21.14169325759932</v>
       </c>
       <c r="N21">
-        <v>11.85033904388395</v>
+        <v>20.27160763086982</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.939948425492733</v>
+        <v>5.772300901098903</v>
       </c>
       <c r="D22">
-        <v>3.316416774778034</v>
+        <v>5.717230171469791</v>
       </c>
       <c r="E22">
-        <v>6.837162679271394</v>
+        <v>11.0761131407298</v>
       </c>
       <c r="F22">
-        <v>43.65790738456361</v>
+        <v>47.13363891227642</v>
       </c>
       <c r="G22">
-        <v>2.041992508887295</v>
+        <v>3.711276649049643</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.65832948516381</v>
+        <v>33.56738968304488</v>
       </c>
       <c r="J22">
-        <v>5.494443308550188</v>
+        <v>9.71774207631546</v>
       </c>
       <c r="K22">
-        <v>29.80944615561236</v>
+        <v>22.46701919752777</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.62763807583133</v>
+        <v>21.26291131742122</v>
       </c>
       <c r="N22">
-        <v>11.58716606720537</v>
+        <v>20.21356531817131</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.946590507865089</v>
+        <v>5.77207664440922</v>
       </c>
       <c r="D23">
-        <v>3.287982864466951</v>
+        <v>5.714799681528981</v>
       </c>
       <c r="E23">
-        <v>6.805909226095597</v>
+        <v>11.07979987284014</v>
       </c>
       <c r="F23">
-        <v>43.02446688373134</v>
+        <v>47.06702864470228</v>
       </c>
       <c r="G23">
-        <v>2.046955616708971</v>
+        <v>3.712737642435974</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.22240900701277</v>
+        <v>33.52470007838728</v>
       </c>
       <c r="J23">
-        <v>5.502387774072276</v>
+        <v>9.725681030210914</v>
       </c>
       <c r="K23">
-        <v>29.19871425935979</v>
+        <v>22.31176294257294</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.18592737112138</v>
+        <v>21.19794595782242</v>
       </c>
       <c r="N23">
-        <v>11.72771241396216</v>
+        <v>20.24438668100015</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.971257046566343</v>
+        <v>5.771308874497367</v>
       </c>
       <c r="D24">
-        <v>3.18117043153249</v>
+        <v>5.705964047958625</v>
       </c>
       <c r="E24">
-        <v>6.693824645166678</v>
+        <v>11.09608722014776</v>
       </c>
       <c r="F24">
-        <v>40.67278904206273</v>
+        <v>46.83640523192545</v>
       </c>
       <c r="G24">
-        <v>2.065764376313002</v>
+        <v>3.718476569015298</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.6082428667334</v>
+        <v>33.3784594187516</v>
       </c>
       <c r="J24">
-        <v>5.537949094484036</v>
+        <v>9.757560316459168</v>
       </c>
       <c r="K24">
-        <v>26.81543847717057</v>
+        <v>21.72304216715834</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.54495194571633</v>
+        <v>20.95796919174363</v>
       </c>
       <c r="N24">
-        <v>12.2587347843241</v>
+        <v>20.36457409822556</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.997174104271645</v>
+        <v>5.770662885560859</v>
       </c>
       <c r="D25">
-        <v>3.067238551436268</v>
+        <v>5.697237531385483</v>
       </c>
       <c r="E25">
-        <v>6.585520807670465</v>
+        <v>11.11863245111938</v>
       </c>
       <c r="F25">
-        <v>38.2308437525236</v>
+        <v>46.63433899334277</v>
       </c>
       <c r="G25">
-        <v>2.086251234212391</v>
+        <v>3.725110263354056</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.94066491635205</v>
+        <v>33.25393810619119</v>
       </c>
       <c r="J25">
-        <v>5.586969446442234</v>
+        <v>9.795825958408386</v>
       </c>
       <c r="K25">
-        <v>24.08403704333852</v>
+        <v>21.0900672106898</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.00997129723268</v>
+        <v>20.71306960625162</v>
       </c>
       <c r="N25">
-        <v>12.8324483640021</v>
+        <v>20.50165885061169</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_205/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.770351896557194</v>
+        <v>4.01598121429536</v>
       </c>
       <c r="D2">
-        <v>5.69151669042765</v>
+        <v>2.984036287819506</v>
       </c>
       <c r="E2">
-        <v>11.13952402176482</v>
+        <v>6.515864692228808</v>
       </c>
       <c r="F2">
-        <v>46.52596488021071</v>
+        <v>36.51103177663104</v>
       </c>
       <c r="G2">
-        <v>3.730380938232589</v>
+        <v>2.101657963641951</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.19093387126759</v>
+        <v>25.77314195038782</v>
       </c>
       <c r="J2">
-        <v>9.827350157133347</v>
+        <v>5.631348995922187</v>
       </c>
       <c r="K2">
-        <v>20.62939283666754</v>
+        <v>21.95169279249156</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.54564155860964</v>
+        <v>16.84461965481325</v>
       </c>
       <c r="N2">
-        <v>20.60907617808908</v>
+        <v>13.25901749191652</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.770248028501598</v>
+        <v>4.02869524593139</v>
       </c>
       <c r="D3">
-        <v>5.688085643398176</v>
+        <v>2.927955917319174</v>
       </c>
       <c r="E3">
-        <v>11.15636483053418</v>
+        <v>6.474615217602321</v>
       </c>
       <c r="F3">
-        <v>46.47776743339227</v>
+        <v>35.39420145108116</v>
       </c>
       <c r="G3">
-        <v>3.734196434935924</v>
+        <v>2.112364880783226</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.16612704358795</v>
+        <v>25.01904925643333</v>
       </c>
       <c r="J3">
-        <v>9.850810723537979</v>
+        <v>5.666217413297358</v>
       </c>
       <c r="K3">
-        <v>20.32242842836381</v>
+        <v>20.58738456121672</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.44062985909191</v>
+        <v>16.03513853121627</v>
       </c>
       <c r="N3">
-        <v>20.68595807129309</v>
+        <v>13.5521818804912</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.770238432072141</v>
+        <v>4.036528181235481</v>
       </c>
       <c r="D4">
-        <v>5.686201248938922</v>
+        <v>2.893654061573462</v>
       </c>
       <c r="E4">
-        <v>11.16802994956298</v>
+        <v>6.45212187264667</v>
       </c>
       <c r="F4">
-        <v>46.46062048992555</v>
+        <v>34.73276053995769</v>
       </c>
       <c r="G4">
-        <v>3.736660107638533</v>
+        <v>2.119088769115348</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.15970658107354</v>
+        <v>24.57437844688273</v>
       </c>
       <c r="J4">
-        <v>9.866251971988234</v>
+        <v>5.689880913246834</v>
       </c>
       <c r="K4">
-        <v>20.13717117331976</v>
+        <v>19.71911585742595</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.38045079820971</v>
+        <v>15.52957012910479</v>
       </c>
       <c r="N4">
-        <v>20.73519146530589</v>
+        <v>13.734639828179</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.770248372426544</v>
+        <v>4.039732677813352</v>
       </c>
       <c r="D5">
-        <v>5.685489611397615</v>
+        <v>2.879707988487886</v>
       </c>
       <c r="E5">
-        <v>11.17311697285297</v>
+        <v>6.443653420918801</v>
       </c>
       <c r="F5">
-        <v>46.45676006599231</v>
+        <v>34.46939021762145</v>
       </c>
       <c r="G5">
-        <v>3.737694602690587</v>
+        <v>2.121869013319928</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.15930268124468</v>
+        <v>24.39779950380091</v>
       </c>
       <c r="J5">
-        <v>9.872805340024966</v>
+        <v>5.700075892617415</v>
       </c>
       <c r="K5">
-        <v>20.06258313281378</v>
+        <v>19.35778770381725</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.35702659666847</v>
+        <v>15.32162627434989</v>
       </c>
       <c r="N5">
-        <v>20.75576609386929</v>
+        <v>13.80967064315591</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.770250866291192</v>
+        <v>4.040265702999279</v>
       </c>
       <c r="D6">
-        <v>5.685374853894723</v>
+        <v>2.877394198938782</v>
       </c>
       <c r="E6">
-        <v>11.17398181260845</v>
+        <v>6.442288952205118</v>
       </c>
       <c r="F6">
-        <v>46.4563077853845</v>
+        <v>34.42603244812671</v>
       </c>
       <c r="G6">
-        <v>3.737868227068657</v>
+        <v>2.122333169599662</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.15936911861826</v>
+        <v>24.36875865313979</v>
       </c>
       <c r="J6">
-        <v>9.873909291380221</v>
+        <v>5.701801682371014</v>
       </c>
       <c r="K6">
-        <v>20.05025533110415</v>
+        <v>19.29734334271932</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.35320392346978</v>
+        <v>15.28698889341975</v>
       </c>
       <c r="N6">
-        <v>20.75921344766788</v>
+        <v>13.82217208646734</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.770238509767752</v>
+        <v>4.036571340024279</v>
       </c>
       <c r="D7">
-        <v>5.686191423204188</v>
+        <v>2.893465849723023</v>
       </c>
       <c r="E7">
-        <v>11.16809720470526</v>
+        <v>6.452004858434448</v>
       </c>
       <c r="F7">
-        <v>46.46055577111017</v>
+        <v>34.72918355904135</v>
       </c>
       <c r="G7">
-        <v>3.736673935439197</v>
+        <v>2.119126098455263</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.15969218120019</v>
+        <v>24.57197828288454</v>
       </c>
       <c r="J7">
-        <v>9.866339296055253</v>
+        <v>5.690016190442577</v>
       </c>
       <c r="K7">
-        <v>20.1361614596395</v>
+        <v>19.71427292967978</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.38013041738201</v>
+        <v>15.526773167921</v>
       </c>
       <c r="N7">
-        <v>20.73546686813984</v>
+        <v>13.73564889848221</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.770304972966802</v>
+        <v>4.020363146912792</v>
       </c>
       <c r="D8">
-        <v>5.690287754353875</v>
+        <v>2.964671409486621</v>
       </c>
       <c r="E8">
-        <v>11.14505593355799</v>
+        <v>6.501044655535687</v>
       </c>
       <c r="F8">
-        <v>46.5067622822386</v>
+        <v>36.12094038429149</v>
       </c>
       <c r="G8">
-        <v>3.731671490198333</v>
+        <v>2.105320208822333</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.18055037199951</v>
+        <v>25.50933112967157</v>
       </c>
       <c r="J8">
-        <v>9.835224461325046</v>
+        <v>5.642894411299661</v>
       </c>
       <c r="K8">
-        <v>20.52294119911278</v>
+        <v>21.48771509414225</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.50855283595229</v>
+        <v>16.56740630536193</v>
       </c>
       <c r="N8">
-        <v>20.63516529471327</v>
+        <v>13.35962908892847</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.77085545589089</v>
+        <v>3.98850659786572</v>
       </c>
       <c r="D9">
-        <v>5.700068515036304</v>
+        <v>3.105488449388798</v>
       </c>
       <c r="E9">
-        <v>11.11037213366758</v>
+        <v>6.620389275910261</v>
       </c>
       <c r="F9">
-        <v>46.69614033270636</v>
+        <v>39.04116874465069</v>
       </c>
       <c r="G9">
-        <v>3.722816017702566</v>
+        <v>2.079309462815033</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.29143222207344</v>
+        <v>27.49290123435106</v>
       </c>
       <c r="J9">
-        <v>9.782416735349878</v>
+        <v>5.569115157688972</v>
       </c>
       <c r="K9">
-        <v>21.30269683786376</v>
+        <v>25.02646595230435</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.79361990741369</v>
+        <v>18.53268442203112</v>
       </c>
       <c r="N9">
-        <v>20.45448002111445</v>
+        <v>12.63875908410745</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.771503294950709</v>
+        <v>3.964632499331892</v>
       </c>
       <c r="D10">
-        <v>5.708299573669405</v>
+        <v>3.21003527823225</v>
       </c>
       <c r="E10">
-        <v>11.09127537002868</v>
+        <v>6.723217548003787</v>
       </c>
       <c r="F10">
-        <v>46.8953431511068</v>
+        <v>41.3033677513075</v>
       </c>
       <c r="G10">
-        <v>3.716884232055068</v>
+        <v>2.06065151262952</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.41554633571101</v>
+        <v>29.04036246871389</v>
       </c>
       <c r="J10">
-        <v>9.748602896483662</v>
+        <v>5.527411849967778</v>
       </c>
       <c r="K10">
-        <v>21.88283838264736</v>
+        <v>27.4744652626673</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.02204999988664</v>
+        <v>19.93831791766161</v>
       </c>
       <c r="N10">
-        <v>20.33137036538443</v>
+        <v>12.11470024096216</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.771848236876709</v>
+        <v>3.953564921004139</v>
       </c>
       <c r="D11">
-        <v>5.712266682521845</v>
+        <v>3.257971705141369</v>
       </c>
       <c r="E11">
-        <v>11.08397060162637</v>
+        <v>6.77353081998194</v>
       </c>
       <c r="F11">
-        <v>46.99892206300469</v>
+        <v>42.35894773970626</v>
       </c>
       <c r="G11">
-        <v>3.714308829089251</v>
+        <v>2.052211727314017</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.48123046553361</v>
+        <v>29.76490277520836</v>
       </c>
       <c r="J11">
-        <v>9.734298197834015</v>
+        <v>5.511447518462441</v>
       </c>
       <c r="K11">
-        <v>22.14714245339655</v>
+        <v>28.54388277834881</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.12979606981303</v>
+        <v>20.71221006111599</v>
       </c>
       <c r="N11">
-        <v>20.27743252112292</v>
+        <v>11.87639805089232</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.771985865469485</v>
+        <v>3.949334373763</v>
       </c>
       <c r="D12">
-        <v>5.713800562154587</v>
+        <v>3.276194576347943</v>
       </c>
       <c r="E12">
-        <v>11.08140291599459</v>
+        <v>6.79311429754959</v>
       </c>
       <c r="F12">
-        <v>47.03999645789258</v>
+        <v>42.76265934733062</v>
       </c>
       <c r="G12">
-        <v>3.713351155421246</v>
+        <v>2.049017901152355</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.50742325549227</v>
+        <v>30.04236975955322</v>
       </c>
       <c r="J12">
-        <v>9.729036006702172</v>
+        <v>5.505862648841127</v>
       </c>
       <c r="K12">
-        <v>22.24718756814027</v>
+        <v>28.94278467850643</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.171121062036</v>
+        <v>21.0007970209395</v>
       </c>
       <c r="N12">
-        <v>20.25730278275802</v>
+        <v>11.78607220110929</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.771955916488689</v>
+        <v>3.950247420185232</v>
       </c>
       <c r="D13">
-        <v>5.713468813934925</v>
+        <v>3.272266519364474</v>
       </c>
       <c r="E13">
-        <v>11.08194709135381</v>
+        <v>6.788872644788381</v>
       </c>
       <c r="F13">
-        <v>47.03106824060622</v>
+        <v>42.67553177856202</v>
       </c>
       <c r="G13">
-        <v>3.713556627669037</v>
+        <v>2.049705735764928</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.50172360530855</v>
+        <v>29.98247159695825</v>
       </c>
       <c r="J13">
-        <v>9.730162437668046</v>
+        <v>5.507044486434299</v>
       </c>
       <c r="K13">
-        <v>22.22564441664806</v>
+        <v>28.85713865112015</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.16219812729589</v>
+        <v>20.93883976899411</v>
       </c>
       <c r="N13">
-        <v>20.26162497223083</v>
+        <v>11.80553099546891</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.771859420476643</v>
+        <v>3.953217722209045</v>
       </c>
       <c r="D14">
-        <v>5.712392244342261</v>
+        <v>3.259469392693178</v>
       </c>
       <c r="E14">
-        <v>11.08375538084984</v>
+        <v>6.775131185417599</v>
       </c>
       <c r="F14">
-        <v>47.00226425582086</v>
+        <v>42.39208011959925</v>
       </c>
       <c r="G14">
-        <v>3.714229689095637</v>
+        <v>2.051948955808184</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.48335895985907</v>
+        <v>29.78766703289745</v>
       </c>
       <c r="J14">
-        <v>9.733862175374993</v>
+        <v>5.510978646094382</v>
       </c>
       <c r="K14">
-        <v>22.15537459878097</v>
+        <v>28.57682039621789</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.13318556097817</v>
+        <v>20.73604054603134</v>
       </c>
       <c r="N14">
-        <v>20.27577052550578</v>
+        <v>11.86896921462756</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.77180121994878</v>
+        <v>3.955031668661842</v>
       </c>
       <c r="D15">
-        <v>5.711736920200294</v>
+        <v>3.25164050423061</v>
       </c>
       <c r="E15">
-        <v>11.08488884726154</v>
+        <v>6.766784000517531</v>
       </c>
       <c r="F15">
-        <v>46.98486166441962</v>
+        <v>42.21898366669421</v>
       </c>
       <c r="G15">
-        <v>3.714644244216166</v>
+        <v>2.053323120158865</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.47228170803268</v>
+        <v>29.66875234218789</v>
       </c>
       <c r="J15">
-        <v>9.736148509482268</v>
+        <v>5.513449292208505</v>
       </c>
       <c r="K15">
-        <v>22.11232410028343</v>
+        <v>28.40433701724287</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.11548193117335</v>
+        <v>20.61124488168993</v>
       </c>
       <c r="N15">
-        <v>20.28447350036178</v>
+        <v>11.90781264907604</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.771481744408993</v>
+        <v>3.965350816522161</v>
       </c>
       <c r="D16">
-        <v>5.708044761214263</v>
+        <v>3.206911392817729</v>
       </c>
       <c r="E16">
-        <v>11.09178054516132</v>
+        <v>6.720002471993626</v>
       </c>
       <c r="F16">
-        <v>46.88883382651453</v>
+        <v>41.23492939922794</v>
       </c>
       <c r="G16">
-        <v>3.717055006180158</v>
+        <v>2.061203643115434</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.41143879704394</v>
+        <v>28.99343692231398</v>
       </c>
       <c r="J16">
-        <v>9.749559401363046</v>
+        <v>5.528517987217966</v>
       </c>
       <c r="K16">
-        <v>21.86556500118136</v>
+        <v>27.40371116951273</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.01508335236895</v>
+        <v>19.88710470706333</v>
       </c>
       <c r="N16">
-        <v>20.33493674991443</v>
+        <v>12.13026744288887</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.77129846751706</v>
+        <v>3.971621632076487</v>
       </c>
       <c r="D17">
-        <v>5.705836503956615</v>
+        <v>3.179578319408734</v>
       </c>
       <c r="E17">
-        <v>11.09636223437478</v>
+        <v>6.692224372973872</v>
       </c>
       <c r="F17">
-        <v>46.8332354013106</v>
+        <v>40.63812904569136</v>
       </c>
       <c r="G17">
-        <v>3.718565353587715</v>
+        <v>2.066047147847779</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.37647189400935</v>
+        <v>28.58450747073666</v>
       </c>
       <c r="J17">
-        <v>9.758062321422511</v>
+        <v>5.538551210703706</v>
       </c>
       <c r="K17">
-        <v>21.71421685765501</v>
+        <v>26.77873754674122</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.95445454801776</v>
+        <v>19.52394284427844</v>
       </c>
       <c r="N17">
-        <v>20.36642213387529</v>
+        <v>12.26669241501973</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.771197792790645</v>
+        <v>3.975209580474217</v>
       </c>
       <c r="D18">
-        <v>5.704587364714141</v>
+        <v>3.163891386343259</v>
       </c>
       <c r="E18">
-        <v>11.09912764395415</v>
+        <v>6.676578506285569</v>
       </c>
       <c r="F18">
-        <v>46.80247748208151</v>
+        <v>40.29734374014826</v>
       </c>
       <c r="G18">
-        <v>3.71944564906234</v>
+        <v>2.06883782037408</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.35722858391662</v>
+        <v>28.35122888892874</v>
       </c>
       <c r="J18">
-        <v>9.763054398746069</v>
+        <v>5.544603192493884</v>
       </c>
       <c r="K18">
-        <v>21.62720825588867</v>
+        <v>26.41509045363194</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.91994484630035</v>
+        <v>19.3163018721223</v>
       </c>
       <c r="N18">
-        <v>20.3847261926863</v>
+        <v>12.34517584891577</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.771164527052366</v>
+        <v>3.976421438764068</v>
       </c>
       <c r="D19">
-        <v>5.704168045482725</v>
+        <v>3.158585536641167</v>
       </c>
       <c r="E19">
-        <v>11.10008632573978</v>
+        <v>6.671337354828992</v>
       </c>
       <c r="F19">
-        <v>46.7922733903</v>
+        <v>40.18238136491515</v>
       </c>
       <c r="G19">
-        <v>3.71974569487046</v>
+        <v>2.069783656165542</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.35086251074743</v>
+        <v>28.27257242207559</v>
       </c>
       <c r="J19">
-        <v>9.764762057159663</v>
+        <v>5.546699771837774</v>
       </c>
       <c r="K19">
-        <v>21.59775902667766</v>
+        <v>26.29123979434613</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.9083235055636</v>
+        <v>19.24580506537573</v>
       </c>
       <c r="N19">
-        <v>20.3909570880114</v>
+        <v>12.37175452811252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.771317488536083</v>
+        <v>3.970956111994923</v>
       </c>
       <c r="D20">
-        <v>5.706069407091765</v>
+        <v>3.1824843163845</v>
       </c>
       <c r="E20">
-        <v>11.09586103867727</v>
+        <v>6.695146950338549</v>
       </c>
       <c r="F20">
-        <v>46.83902767919545</v>
+        <v>40.70140194290035</v>
       </c>
       <c r="G20">
-        <v>3.71840337647644</v>
+        <v>2.065531082404824</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.38010431376477</v>
+        <v>28.62783847372731</v>
       </c>
       <c r="J20">
-        <v>9.757146675968343</v>
+        <v>5.537453867224619</v>
       </c>
       <c r="K20">
-        <v>21.73032440966023</v>
+        <v>26.84569755097284</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.96087127620231</v>
+        <v>19.56228068322063</v>
       </c>
       <c r="N20">
-        <v>20.3630503430661</v>
+        <v>12.25216884366299</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.771887575251793</v>
+        <v>3.952346426951072</v>
       </c>
       <c r="D21">
-        <v>5.712707604019142</v>
+        <v>3.263226157889789</v>
       </c>
       <c r="E21">
-        <v>11.08321885861893</v>
+        <v>6.7791527832265</v>
       </c>
       <c r="F21">
-        <v>47.01067455254809</v>
+        <v>42.47522671039158</v>
       </c>
       <c r="G21">
-        <v>3.714031518527257</v>
+        <v>2.051290050513277</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.4887173497442</v>
+        <v>29.84480034446459</v>
       </c>
       <c r="J21">
-        <v>9.732771276417029</v>
+        <v>5.509810349889628</v>
       </c>
       <c r="K21">
-        <v>22.17601642812579</v>
+        <v>28.65931871526148</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.14169325759932</v>
+        <v>20.79572706720213</v>
       </c>
       <c r="N21">
-        <v>20.27160763086982</v>
+        <v>11.85033904388404</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.772300901098903</v>
+        <v>3.939948425492722</v>
       </c>
       <c r="D22">
-        <v>5.717230171469791</v>
+        <v>3.316416774778089</v>
       </c>
       <c r="E22">
-        <v>11.0761131407298</v>
+        <v>6.837162679271357</v>
       </c>
       <c r="F22">
-        <v>47.13363891227642</v>
+        <v>43.65790738456362</v>
       </c>
       <c r="G22">
-        <v>3.711276649049643</v>
+        <v>2.041992508887295</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.56738968304488</v>
+        <v>30.65832948516382</v>
       </c>
       <c r="J22">
-        <v>9.71774207631546</v>
+        <v>5.494443308550135</v>
       </c>
       <c r="K22">
-        <v>22.46701919752777</v>
+        <v>29.80944615561238</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.26291131742122</v>
+        <v>21.62763807583136</v>
       </c>
       <c r="N22">
-        <v>20.21356531817131</v>
+        <v>11.58716606720537</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.77207664440922</v>
+        <v>3.946590507864964</v>
       </c>
       <c r="D23">
-        <v>5.714799681528981</v>
+        <v>3.287982864466946</v>
       </c>
       <c r="E23">
-        <v>11.07979987284014</v>
+        <v>6.805909226095736</v>
       </c>
       <c r="F23">
-        <v>47.06702864470228</v>
+        <v>43.02446688373129</v>
       </c>
       <c r="G23">
-        <v>3.712737642435974</v>
+        <v>2.046955616708845</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.52470007838728</v>
+        <v>30.22240900701274</v>
       </c>
       <c r="J23">
-        <v>9.725681030210914</v>
+        <v>5.502387774072356</v>
       </c>
       <c r="K23">
-        <v>22.31176294257294</v>
+        <v>29.19871425935978</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.19794595782242</v>
+        <v>21.18592737112134</v>
       </c>
       <c r="N23">
-        <v>20.24438668100015</v>
+        <v>11.72771241396215</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.771308874497367</v>
+        <v>3.971257046566095</v>
       </c>
       <c r="D24">
-        <v>5.705964047958625</v>
+        <v>3.181170431532547</v>
       </c>
       <c r="E24">
-        <v>11.09608722014776</v>
+        <v>6.693824645166678</v>
       </c>
       <c r="F24">
-        <v>46.83640523192545</v>
+        <v>40.67278904206276</v>
       </c>
       <c r="G24">
-        <v>3.718476569015298</v>
+        <v>2.065764376313134</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.3784594187516</v>
+        <v>28.60824286673343</v>
       </c>
       <c r="J24">
-        <v>9.757560316459168</v>
+        <v>5.537949094484038</v>
       </c>
       <c r="K24">
-        <v>21.72304216715834</v>
+        <v>26.81543847717058</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.95796919174363</v>
+        <v>19.54495194571634</v>
       </c>
       <c r="N24">
-        <v>20.36457409822556</v>
+        <v>12.25873478432417</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.770662885560859</v>
+        <v>3.997174104271526</v>
       </c>
       <c r="D25">
-        <v>5.697237531385483</v>
+        <v>3.067238551436224</v>
       </c>
       <c r="E25">
-        <v>11.11863245111938</v>
+        <v>6.585520807670477</v>
       </c>
       <c r="F25">
-        <v>46.63433899334277</v>
+        <v>38.2308437525236</v>
       </c>
       <c r="G25">
-        <v>3.725110263354056</v>
+        <v>2.086251234212527</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.25393810619119</v>
+        <v>26.94066491635205</v>
       </c>
       <c r="J25">
-        <v>9.795825958408386</v>
+        <v>5.586969446442234</v>
       </c>
       <c r="K25">
-        <v>21.0900672106898</v>
+        <v>24.08403704333854</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.71306960625162</v>
+        <v>18.00997129723268</v>
       </c>
       <c r="N25">
-        <v>20.50165885061169</v>
+        <v>12.83244836400207</v>
       </c>
       <c r="O25">
         <v>0</v>
